--- a/data/raw-data/codebook.xlsx
+++ b/data/raw-data/codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XylemHu/Desktop/EPID8060E/GitHub/XUEYANHU-MADA-project/data/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3534EDB4-01CF-3743-8182-41FE86299362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0A3FBE-EDCA-1A4F-8F3A-1E6543BA1423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="500" windowWidth="25440" windowHeight="14500" xr2:uid="{64ADDFC8-2849-6040-99A2-84A476D00C81}"/>
+    <workbookView xWindow="1940" yWindow="500" windowWidth="25440" windowHeight="14500" xr2:uid="{64ADDFC8-2849-6040-99A2-84A476D00C81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,11 +574,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9898F67-95F7-6D40-9D19-D062EDE2A243}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="91" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
